--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\younger\Desktop\python3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6223676-F379-4448-8A80-F621CC54AF94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889AB802-D49B-4C02-8636-C3D2F377F985}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="930" windowWidth="7455" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1380" windowWidth="7455" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -988,6 +988,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -996,15 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AS12"/>
+  <dimension ref="B1:AS13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13"/>
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1432,145 +1432,145 @@
   <sheetData>
     <row r="1" spans="2:45" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
     </row>
     <row r="3" spans="2:45" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
     </row>
     <row r="4" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
     </row>
     <row r="5" spans="2:45" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -1707,10 +1707,10 @@
       </c>
     </row>
     <row r="6" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1809,40 +1809,40 @@
       <c r="AI6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AL6" s="9" t="s">
+      <c r="AL6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AM6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AN6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AO6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AP6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AQ6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AR6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AS6" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="3" t="s">
         <v>91</v>
       </c>
@@ -1939,22 +1939,22 @@
       <c r="AI7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
     </row>
     <row r="8" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2053,40 +2053,40 @@
       <c r="AI8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="AJ8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AK8" s="9" t="s">
+      <c r="AK8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AL8" s="9" t="s">
+      <c r="AL8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AM8" s="9" t="s">
+      <c r="AM8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AN8" s="9" t="s">
+      <c r="AN8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="AO8" s="9" t="s">
+      <c r="AO8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="AP8" s="9" t="s">
+      <c r="AP8" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AQ8" s="9" t="s">
+      <c r="AQ8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="AR8" s="9" t="s">
+      <c r="AR8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="AS8" s="9" t="s">
+      <c r="AS8" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
         <v>167</v>
       </c>
@@ -2183,22 +2183,22 @@
       <c r="AI9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
     </row>
     <row r="10" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2297,40 +2297,40 @@
       <c r="AI10" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="AJ10" s="9" t="s">
+      <c r="AJ10" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="AK10" s="9" t="s">
+      <c r="AK10" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AL10" s="9" t="s">
+      <c r="AL10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="AM10" s="9" t="s">
+      <c r="AM10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AN10" s="9" t="s">
+      <c r="AN10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="AO10" s="9" t="s">
+      <c r="AO10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="AP10" s="9" t="s">
+      <c r="AP10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="AQ10" s="9" t="s">
+      <c r="AQ10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="AR10" s="9" t="s">
+      <c r="AR10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="AS10" s="9" t="s">
+      <c r="AS10" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="11" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
         <v>243</v>
       </c>
@@ -2427,67 +2427,96 @@
       <c r="AI11" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
     </row>
     <row r="12" spans="2:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="E2:AS2"/>
+    <mergeCell ref="B3:AS3"/>
+    <mergeCell ref="B4:AS4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
     <mergeCell ref="B12:AS12"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -2504,35 +2533,11 @@
     <mergeCell ref="AN10:AN11"/>
     <mergeCell ref="AO10:AO11"/>
     <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="E2:AS2"/>
-    <mergeCell ref="B3:AS3"/>
-    <mergeCell ref="B4:AS4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\younger\Desktop\python3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889AB802-D49B-4C02-8636-C3D2F377F985}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B943D-3B50-4D10-BEBD-0F1A40BF86DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1380" windowWidth="7455" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1830" windowWidth="7455" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -988,12 +988,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1005,6 +999,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AS13"/>
+  <dimension ref="B1:AS12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+      <selection activeCell="AF19" sqref="AF19:AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1432,145 +1432,145 @@
   <sheetData>
     <row r="1" spans="2:45" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
     </row>
     <row r="3" spans="2:45" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
     </row>
     <row r="4" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
     </row>
     <row r="5" spans="2:45" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -1707,10 +1707,10 @@
       </c>
     </row>
     <row r="6" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1809,40 +1809,40 @@
       <c r="AI6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AJ6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AK6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AL6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AM6" s="7" t="s">
+      <c r="AM6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AN6" s="7" t="s">
+      <c r="AN6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AO6" s="7" t="s">
+      <c r="AO6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AP6" s="7" t="s">
+      <c r="AP6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AQ6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AR6" s="7" t="s">
+      <c r="AR6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AS6" s="7" t="s">
+      <c r="AS6" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="3" t="s">
         <v>91</v>
       </c>
@@ -1939,22 +1939,22 @@
       <c r="AI7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
     </row>
     <row r="8" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2053,40 +2053,40 @@
       <c r="AI8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="AK8" s="7" t="s">
+      <c r="AK8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AL8" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AM8" s="7" t="s">
+      <c r="AM8" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AN8" s="7" t="s">
+      <c r="AN8" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AO8" s="7" t="s">
+      <c r="AO8" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AP8" s="7" t="s">
+      <c r="AP8" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AQ8" s="7" t="s">
+      <c r="AQ8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="AR8" s="7" t="s">
+      <c r="AR8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AS8" s="7" t="s">
+      <c r="AS8" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
         <v>167</v>
       </c>
@@ -2183,22 +2183,22 @@
       <c r="AI9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
     </row>
     <row r="10" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2297,40 +2297,40 @@
       <c r="AI10" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AJ10" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AK10" s="7" t="s">
+      <c r="AK10" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="AO10" s="7" t="s">
+      <c r="AO10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="AP10" s="7" t="s">
+      <c r="AP10" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AQ10" s="7" t="s">
+      <c r="AQ10" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="AR10" s="7" t="s">
+      <c r="AR10" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AS10" s="7" t="s">
+      <c r="AS10" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="11" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3" t="s">
         <v>243</v>
       </c>
@@ -2427,96 +2427,67 @@
       <c r="AI11" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
     </row>
     <row r="12" spans="2:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-    </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="D13">
-        <v>1</v>
-      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="E2:AS2"/>
-    <mergeCell ref="B3:AS3"/>
-    <mergeCell ref="B4:AS4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
     <mergeCell ref="B12:AS12"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -2533,6 +2504,30 @@
     <mergeCell ref="AN10:AN11"/>
     <mergeCell ref="AO10:AO11"/>
     <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="E2:AS2"/>
+    <mergeCell ref="B3:AS3"/>
+    <mergeCell ref="B4:AS4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AS10:AS11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
